--- a/data/modelos.xlsx
+++ b/data/modelos.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="10">
   <si>
     <t>SIF</t>
   </si>
@@ -57,18 +57,30 @@
   <si>
     <t>XCO2</t>
   </si>
+  <si>
+    <t>LST_d</t>
+  </si>
+  <si>
+    <t>LST_n</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -79,7 +91,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -87,13 +99,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C121"/>
+  <dimension ref="A1:C239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62:C121"/>
+    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="A181" sqref="A181:C239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,6 +474,8 @@
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1752,6 +1809,1304 @@
         <v>7</v>
       </c>
     </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="2">
+        <v>42005</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C122" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="4">
+        <v>42036</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C123" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="4">
+        <v>42064</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C124" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="4">
+        <v>42095</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C125" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="4">
+        <v>42125</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C126" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="4">
+        <v>42156</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C127" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="4">
+        <v>42186</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C128" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="4">
+        <v>42217</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C129" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="4">
+        <v>42248</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C130" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="4">
+        <v>42278</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C131" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="4">
+        <v>42309</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C132" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="4">
+        <v>42339</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C133" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="4">
+        <v>42370</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C134" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="4">
+        <v>42401</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C135" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="4">
+        <v>42430</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C136" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="4">
+        <v>42461</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C137" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="4">
+        <v>42491</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C138" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="4">
+        <v>42522</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C139" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="4">
+        <v>42552</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C140" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="4">
+        <v>42583</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C141" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="4">
+        <v>42614</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C142" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="4">
+        <v>42644</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C143" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="4">
+        <v>42675</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C144" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="4">
+        <v>42705</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C145" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="4">
+        <v>42736</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C146" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="4">
+        <v>42767</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C147" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="4">
+        <v>42795</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C148" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="4">
+        <v>42826</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C149" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="4">
+        <v>42856</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C150" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="4">
+        <v>42887</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C151" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="4">
+        <v>42917</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C152" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="4">
+        <v>42979</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C153" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="4">
+        <v>43009</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C154" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="4">
+        <v>43040</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C155" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="4">
+        <v>43070</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C156" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="4">
+        <v>43101</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C157" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="4">
+        <v>43132</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C158" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="4">
+        <v>43160</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C159" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="4">
+        <v>43191</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C160" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="4">
+        <v>43221</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C161" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="4">
+        <v>43252</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C162" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="4">
+        <v>43282</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C163" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="4">
+        <v>43313</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C164" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="4">
+        <v>43344</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C165" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="4">
+        <v>43374</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C166" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="4">
+        <v>43405</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C167" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="4">
+        <v>43435</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C168" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="4">
+        <v>43466</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C169" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="4">
+        <v>43497</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C170" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="4">
+        <v>43525</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C171" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="4">
+        <v>43556</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C172" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="4">
+        <v>43586</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C173" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="4">
+        <v>43617</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C174" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="4">
+        <v>43647</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C175" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="4">
+        <v>43678</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C176" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="4">
+        <v>43709</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C177" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="4">
+        <v>43739</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C178" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="4">
+        <v>43770</v>
+      </c>
+      <c r="B179" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C179" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="4">
+        <v>43800</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C180" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="2">
+        <v>42005</v>
+      </c>
+      <c r="B181" t="s">
+        <v>6</v>
+      </c>
+      <c r="C181" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="4">
+        <v>42036</v>
+      </c>
+      <c r="B182" t="s">
+        <v>6</v>
+      </c>
+      <c r="C182" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="4">
+        <v>42064</v>
+      </c>
+      <c r="B183" t="s">
+        <v>6</v>
+      </c>
+      <c r="C183" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="4">
+        <v>42095</v>
+      </c>
+      <c r="B184" t="s">
+        <v>4</v>
+      </c>
+      <c r="C184" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="4">
+        <v>42125</v>
+      </c>
+      <c r="B185" t="s">
+        <v>5</v>
+      </c>
+      <c r="C185" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="4">
+        <v>42156</v>
+      </c>
+      <c r="B186" t="s">
+        <v>5</v>
+      </c>
+      <c r="C186" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="4">
+        <v>42186</v>
+      </c>
+      <c r="B187" t="s">
+        <v>5</v>
+      </c>
+      <c r="C187" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="4">
+        <v>42217</v>
+      </c>
+      <c r="B188" t="s">
+        <v>5</v>
+      </c>
+      <c r="C188" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="4">
+        <v>42248</v>
+      </c>
+      <c r="B189" t="s">
+        <v>6</v>
+      </c>
+      <c r="C189" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="4">
+        <v>42278</v>
+      </c>
+      <c r="B190" t="s">
+        <v>5</v>
+      </c>
+      <c r="C190" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="4">
+        <v>42309</v>
+      </c>
+      <c r="B191" t="s">
+        <v>5</v>
+      </c>
+      <c r="C191" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="4">
+        <v>42339</v>
+      </c>
+      <c r="B192" t="s">
+        <v>6</v>
+      </c>
+      <c r="C192" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="4">
+        <v>42370</v>
+      </c>
+      <c r="B193" t="s">
+        <v>6</v>
+      </c>
+      <c r="C193" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="4">
+        <v>42401</v>
+      </c>
+      <c r="B194" t="s">
+        <v>6</v>
+      </c>
+      <c r="C194" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="4">
+        <v>42430</v>
+      </c>
+      <c r="B195" t="s">
+        <v>5</v>
+      </c>
+      <c r="C195" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="4">
+        <v>42461</v>
+      </c>
+      <c r="B196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C196" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="4">
+        <v>42491</v>
+      </c>
+      <c r="B197" t="s">
+        <v>4</v>
+      </c>
+      <c r="C197" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="4">
+        <v>42522</v>
+      </c>
+      <c r="B198" t="s">
+        <v>5</v>
+      </c>
+      <c r="C198" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="4">
+        <v>42552</v>
+      </c>
+      <c r="B199" t="s">
+        <v>5</v>
+      </c>
+      <c r="C199" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="4">
+        <v>42583</v>
+      </c>
+      <c r="B200" t="s">
+        <v>5</v>
+      </c>
+      <c r="C200" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="4">
+        <v>42614</v>
+      </c>
+      <c r="B201" t="s">
+        <v>5</v>
+      </c>
+      <c r="C201" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="4">
+        <v>42644</v>
+      </c>
+      <c r="B202" t="s">
+        <v>5</v>
+      </c>
+      <c r="C202" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="4">
+        <v>42675</v>
+      </c>
+      <c r="B203" t="s">
+        <v>5</v>
+      </c>
+      <c r="C203" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="4">
+        <v>42705</v>
+      </c>
+      <c r="B204" t="s">
+        <v>5</v>
+      </c>
+      <c r="C204" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="4">
+        <v>42736</v>
+      </c>
+      <c r="B205" t="s">
+        <v>6</v>
+      </c>
+      <c r="C205" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="4">
+        <v>42767</v>
+      </c>
+      <c r="B206" t="s">
+        <v>6</v>
+      </c>
+      <c r="C206" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="4">
+        <v>42795</v>
+      </c>
+      <c r="B207" t="s">
+        <v>6</v>
+      </c>
+      <c r="C207" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="4">
+        <v>42826</v>
+      </c>
+      <c r="B208" t="s">
+        <v>6</v>
+      </c>
+      <c r="C208" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="4">
+        <v>42856</v>
+      </c>
+      <c r="B209" t="s">
+        <v>5</v>
+      </c>
+      <c r="C209" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="4">
+        <v>42887</v>
+      </c>
+      <c r="B210" t="s">
+        <v>5</v>
+      </c>
+      <c r="C210" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="4">
+        <v>42917</v>
+      </c>
+      <c r="B211" t="s">
+        <v>5</v>
+      </c>
+      <c r="C211" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="4">
+        <v>42979</v>
+      </c>
+      <c r="B212" t="s">
+        <v>5</v>
+      </c>
+      <c r="C212" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="4">
+        <v>43009</v>
+      </c>
+      <c r="B213" t="s">
+        <v>5</v>
+      </c>
+      <c r="C213" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="4">
+        <v>43040</v>
+      </c>
+      <c r="B214" t="s">
+        <v>6</v>
+      </c>
+      <c r="C214" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="4">
+        <v>43070</v>
+      </c>
+      <c r="B215" t="s">
+        <v>6</v>
+      </c>
+      <c r="C215" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="4">
+        <v>43101</v>
+      </c>
+      <c r="B216" t="s">
+        <v>6</v>
+      </c>
+      <c r="C216" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="4">
+        <v>43132</v>
+      </c>
+      <c r="B217" t="s">
+        <v>6</v>
+      </c>
+      <c r="C217" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="4">
+        <v>43160</v>
+      </c>
+      <c r="B218" t="s">
+        <v>6</v>
+      </c>
+      <c r="C218" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="4">
+        <v>43191</v>
+      </c>
+      <c r="B219" t="s">
+        <v>4</v>
+      </c>
+      <c r="C219" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="4">
+        <v>43221</v>
+      </c>
+      <c r="B220" t="s">
+        <v>5</v>
+      </c>
+      <c r="C220" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="4">
+        <v>43252</v>
+      </c>
+      <c r="B221" t="s">
+        <v>5</v>
+      </c>
+      <c r="C221" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="4">
+        <v>43282</v>
+      </c>
+      <c r="B222" t="s">
+        <v>5</v>
+      </c>
+      <c r="C222" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="4">
+        <v>43313</v>
+      </c>
+      <c r="B223" t="s">
+        <v>5</v>
+      </c>
+      <c r="C223" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="4">
+        <v>43344</v>
+      </c>
+      <c r="B224" t="s">
+        <v>5</v>
+      </c>
+      <c r="C224" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="4">
+        <v>43374</v>
+      </c>
+      <c r="B225" t="s">
+        <v>5</v>
+      </c>
+      <c r="C225" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="4">
+        <v>43405</v>
+      </c>
+      <c r="B226" t="s">
+        <v>4</v>
+      </c>
+      <c r="C226" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="4">
+        <v>43435</v>
+      </c>
+      <c r="B227" t="s">
+        <v>5</v>
+      </c>
+      <c r="C227" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="4">
+        <v>43466</v>
+      </c>
+      <c r="B228" t="s">
+        <v>5</v>
+      </c>
+      <c r="C228" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="4">
+        <v>43497</v>
+      </c>
+      <c r="B229" t="s">
+        <v>6</v>
+      </c>
+      <c r="C229" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="4">
+        <v>43525</v>
+      </c>
+      <c r="B230" t="s">
+        <v>6</v>
+      </c>
+      <c r="C230" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="4">
+        <v>43556</v>
+      </c>
+      <c r="B231" t="s">
+        <v>6</v>
+      </c>
+      <c r="C231" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="4">
+        <v>43586</v>
+      </c>
+      <c r="B232" t="s">
+        <v>5</v>
+      </c>
+      <c r="C232" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="4">
+        <v>43617</v>
+      </c>
+      <c r="B233" t="s">
+        <v>5</v>
+      </c>
+      <c r="C233" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="4">
+        <v>43647</v>
+      </c>
+      <c r="B234" t="s">
+        <v>5</v>
+      </c>
+      <c r="C234" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="4">
+        <v>43678</v>
+      </c>
+      <c r="B235" t="s">
+        <v>5</v>
+      </c>
+      <c r="C235" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="4">
+        <v>43709</v>
+      </c>
+      <c r="B236" t="s">
+        <v>5</v>
+      </c>
+      <c r="C236" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="4">
+        <v>43739</v>
+      </c>
+      <c r="B237" t="s">
+        <v>5</v>
+      </c>
+      <c r="C237" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="4">
+        <v>43770</v>
+      </c>
+      <c r="B238" t="s">
+        <v>6</v>
+      </c>
+      <c r="C238" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="4">
+        <v>43800</v>
+      </c>
+      <c r="B239" t="s">
+        <v>6</v>
+      </c>
+      <c r="C239" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/data/modelos.xlsx
+++ b/data/modelos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\matopiba-xco2-sif\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\matopiba-xco2-sif\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="11">
   <si>
     <t>SIF</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>LST_n</t>
+  </si>
+  <si>
+    <t>Amp_T</t>
   </si>
 </sst>
 </file>
@@ -463,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C239"/>
+  <dimension ref="A1:C297"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="A181" sqref="A181:C239"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61:XFD61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,6 +477,7 @@
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1140,18 +1144,18 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>43831</v>
+        <v>42005</v>
       </c>
       <c r="B61" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C61" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>42005</v>
+        <v>42036</v>
       </c>
       <c r="B62" t="s">
         <v>4</v>
@@ -1162,10 +1166,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>42036</v>
+        <v>42064</v>
       </c>
       <c r="B63" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C63" t="s">
         <v>7</v>
@@ -1173,10 +1177,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>42064</v>
+        <v>42095</v>
       </c>
       <c r="B64" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C64" t="s">
         <v>7</v>
@@ -1184,10 +1188,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>42095</v>
+        <v>42125</v>
       </c>
       <c r="B65" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C65" t="s">
         <v>7</v>
@@ -1195,10 +1199,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>42125</v>
+        <v>42156</v>
       </c>
       <c r="B66" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C66" t="s">
         <v>7</v>
@@ -1206,10 +1210,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>42156</v>
+        <v>42186</v>
       </c>
       <c r="B67" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C67" t="s">
         <v>7</v>
@@ -1217,7 +1221,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>42186</v>
+        <v>42217</v>
       </c>
       <c r="B68" t="s">
         <v>4</v>
@@ -1228,7 +1232,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>42217</v>
+        <v>42248</v>
       </c>
       <c r="B69" t="s">
         <v>4</v>
@@ -1239,10 +1243,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>42248</v>
+        <v>42278</v>
       </c>
       <c r="B70" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C70" t="s">
         <v>7</v>
@@ -1250,10 +1254,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C71" t="s">
         <v>7</v>
@@ -1261,10 +1265,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="B72" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C72" t="s">
         <v>7</v>
@@ -1272,10 +1276,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>42339</v>
+        <v>42370</v>
       </c>
       <c r="B73" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C73" t="s">
         <v>7</v>
@@ -1283,7 +1287,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>42370</v>
+        <v>42401</v>
       </c>
       <c r="B74" t="s">
         <v>6</v>
@@ -1294,10 +1298,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>42401</v>
+        <v>42430</v>
       </c>
       <c r="B75" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C75" t="s">
         <v>7</v>
@@ -1305,10 +1309,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>42430</v>
+        <v>42461</v>
       </c>
       <c r="B76" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C76" t="s">
         <v>7</v>
@@ -1316,10 +1320,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>42461</v>
+        <v>42491</v>
       </c>
       <c r="B77" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C77" t="s">
         <v>7</v>
@@ -1327,10 +1331,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>42491</v>
+        <v>42522</v>
       </c>
       <c r="B78" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C78" t="s">
         <v>7</v>
@@ -1338,7 +1342,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>42522</v>
+        <v>42552</v>
       </c>
       <c r="B79" t="s">
         <v>4</v>
@@ -1349,7 +1353,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>42552</v>
+        <v>42583</v>
       </c>
       <c r="B80" t="s">
         <v>4</v>
@@ -1360,7 +1364,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>42583</v>
+        <v>42614</v>
       </c>
       <c r="B81" t="s">
         <v>4</v>
@@ -1371,10 +1375,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>42614</v>
+        <v>42644</v>
       </c>
       <c r="B82" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C82" t="s">
         <v>7</v>
@@ -1382,10 +1386,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>42644</v>
+        <v>42675</v>
       </c>
       <c r="B83" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C83" t="s">
         <v>7</v>
@@ -1393,10 +1397,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>42675</v>
+        <v>42705</v>
       </c>
       <c r="B84" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C84" t="s">
         <v>7</v>
@@ -1404,7 +1408,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>42705</v>
+        <v>42736</v>
       </c>
       <c r="B85" t="s">
         <v>4</v>
@@ -1415,10 +1419,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>42736</v>
+        <v>42767</v>
       </c>
       <c r="B86" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C86" t="s">
         <v>7</v>
@@ -1426,7 +1430,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>42767</v>
+        <v>42795</v>
       </c>
       <c r="B87" t="s">
         <v>6</v>
@@ -1437,10 +1441,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>42795</v>
+        <v>42826</v>
       </c>
       <c r="B88" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C88" t="s">
         <v>7</v>
@@ -1448,7 +1452,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>42826</v>
+        <v>42856</v>
       </c>
       <c r="B89" t="s">
         <v>4</v>
@@ -1459,10 +1463,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>42856</v>
+        <v>42887</v>
       </c>
       <c r="B90" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C90" t="s">
         <v>7</v>
@@ -1470,10 +1474,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>42887</v>
+        <v>42917</v>
       </c>
       <c r="B91" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C91" t="s">
         <v>7</v>
@@ -1481,7 +1485,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>42917</v>
+        <v>42979</v>
       </c>
       <c r="B92" t="s">
         <v>5</v>
@@ -1492,10 +1496,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>42979</v>
+        <v>43009</v>
       </c>
       <c r="B93" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C93" t="s">
         <v>7</v>
@@ -1503,7 +1507,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>43009</v>
+        <v>43040</v>
       </c>
       <c r="B94" t="s">
         <v>6</v>
@@ -1514,7 +1518,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>43040</v>
+        <v>43070</v>
       </c>
       <c r="B95" t="s">
         <v>6</v>
@@ -1525,7 +1529,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>43070</v>
+        <v>43101</v>
       </c>
       <c r="B96" t="s">
         <v>6</v>
@@ -1536,10 +1540,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>43101</v>
+        <v>43132</v>
       </c>
       <c r="B97" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C97" t="s">
         <v>7</v>
@@ -1547,10 +1551,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="B98" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C98" t="s">
         <v>7</v>
@@ -1558,10 +1562,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>43160</v>
+        <v>43191</v>
       </c>
       <c r="B99" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C99" t="s">
         <v>7</v>
@@ -1569,10 +1573,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>43191</v>
+        <v>43221</v>
       </c>
       <c r="B100" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C100" t="s">
         <v>7</v>
@@ -1580,10 +1584,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>43221</v>
+        <v>43252</v>
       </c>
       <c r="B101" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C101" t="s">
         <v>7</v>
@@ -1591,7 +1595,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>43252</v>
+        <v>43282</v>
       </c>
       <c r="B102" t="s">
         <v>6</v>
@@ -1602,10 +1606,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>43282</v>
+        <v>43313</v>
       </c>
       <c r="B103" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C103" t="s">
         <v>7</v>
@@ -1613,10 +1617,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>43313</v>
+        <v>43344</v>
       </c>
       <c r="B104" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C104" t="s">
         <v>7</v>
@@ -1624,10 +1628,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>43344</v>
+        <v>43374</v>
       </c>
       <c r="B105" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C105" t="s">
         <v>7</v>
@@ -1635,7 +1639,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B106" t="s">
         <v>5</v>
@@ -1646,10 +1650,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B107" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C107" t="s">
         <v>7</v>
@@ -1657,7 +1661,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>43435</v>
+        <v>43466</v>
       </c>
       <c r="B108" t="s">
         <v>6</v>
@@ -1668,10 +1672,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>43466</v>
+        <v>43497</v>
       </c>
       <c r="B109" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C109" t="s">
         <v>7</v>
@@ -1679,10 +1683,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="B110" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C110" t="s">
         <v>7</v>
@@ -1690,10 +1694,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>43525</v>
+        <v>43556</v>
       </c>
       <c r="B111" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C111" t="s">
         <v>7</v>
@@ -1701,10 +1705,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>43556</v>
+        <v>43586</v>
       </c>
       <c r="B112" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C112" t="s">
         <v>7</v>
@@ -1712,10 +1716,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>43586</v>
+        <v>43617</v>
       </c>
       <c r="B113" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C113" t="s">
         <v>7</v>
@@ -1723,10 +1727,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>43617</v>
+        <v>43647</v>
       </c>
       <c r="B114" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C114" t="s">
         <v>7</v>
@@ -1734,10 +1738,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>43647</v>
+        <v>43678</v>
       </c>
       <c r="B115" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C115" t="s">
         <v>7</v>
@@ -1745,10 +1749,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>43678</v>
+        <v>43709</v>
       </c>
       <c r="B116" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C116" t="s">
         <v>7</v>
@@ -1756,7 +1760,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>43709</v>
+        <v>43739</v>
       </c>
       <c r="B117" t="s">
         <v>6</v>
@@ -1767,10 +1771,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>43739</v>
+        <v>43770</v>
       </c>
       <c r="B118" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C118" t="s">
         <v>7</v>
@@ -1778,40 +1782,40 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>43770</v>
+        <v>43800</v>
       </c>
       <c r="B119" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C119" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="1">
-        <v>43800</v>
-      </c>
-      <c r="B120" t="s">
+      <c r="A120" s="2">
+        <v>42005</v>
+      </c>
+      <c r="B120" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="1">
-        <v>43831</v>
-      </c>
-      <c r="B121" t="s">
+      <c r="A121" s="4">
+        <v>42036</v>
+      </c>
+      <c r="B121" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="2">
-        <v>42005</v>
+      <c r="A122" s="4">
+        <v>42064</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>6</v>
@@ -1822,10 +1826,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
-        <v>42036</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>6</v>
+        <v>42095</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="C123" t="s">
         <v>8</v>
@@ -1833,7 +1837,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
-        <v>42064</v>
+        <v>42125</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>6</v>
@@ -1844,10 +1848,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
-        <v>42095</v>
-      </c>
-      <c r="B125" s="5" t="s">
-        <v>5</v>
+        <v>42156</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="C125" t="s">
         <v>8</v>
@@ -1855,7 +1859,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
-        <v>42125</v>
+        <v>42186</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>6</v>
@@ -1866,7 +1870,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
-        <v>42156</v>
+        <v>42217</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>6</v>
@@ -1877,7 +1881,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
-        <v>42186</v>
+        <v>42248</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>6</v>
@@ -1888,10 +1892,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
-        <v>42217</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>6</v>
+        <v>42278</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="C129" t="s">
         <v>8</v>
@@ -1899,10 +1903,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
-        <v>42248</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>6</v>
+        <v>42309</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="C130" t="s">
         <v>8</v>
@@ -1910,7 +1914,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
-        <v>42278</v>
+        <v>42339</v>
       </c>
       <c r="B131" s="5" t="s">
         <v>4</v>
@@ -1921,10 +1925,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
-        <v>42309</v>
+        <v>42370</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C132" t="s">
         <v>8</v>
@@ -1932,10 +1936,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
-        <v>42339</v>
-      </c>
-      <c r="B133" s="5" t="s">
-        <v>4</v>
+        <v>42401</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="C133" t="s">
         <v>8</v>
@@ -1943,7 +1947,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
-        <v>42370</v>
+        <v>42430</v>
       </c>
       <c r="B134" s="5" t="s">
         <v>5</v>
@@ -1954,7 +1958,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
-        <v>42401</v>
+        <v>42461</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>6</v>
@@ -1965,10 +1969,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
-        <v>42430</v>
-      </c>
-      <c r="B136" s="5" t="s">
-        <v>5</v>
+        <v>42491</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="C136" t="s">
         <v>8</v>
@@ -1976,7 +1980,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
-        <v>42461</v>
+        <v>42522</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>6</v>
@@ -1987,7 +1991,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
-        <v>42491</v>
+        <v>42552</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>6</v>
@@ -1998,7 +2002,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
-        <v>42522</v>
+        <v>42583</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>6</v>
@@ -2009,7 +2013,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
-        <v>42552</v>
+        <v>42614</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>6</v>
@@ -2020,7 +2024,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
-        <v>42583</v>
+        <v>42644</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>6</v>
@@ -2031,7 +2035,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
-        <v>42614</v>
+        <v>42675</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>6</v>
@@ -2042,7 +2046,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
-        <v>42644</v>
+        <v>42705</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>6</v>
@@ -2053,7 +2057,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
-        <v>42675</v>
+        <v>42736</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>6</v>
@@ -2064,7 +2068,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
-        <v>42705</v>
+        <v>42767</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>6</v>
@@ -2075,7 +2079,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
-        <v>42736</v>
+        <v>42795</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>6</v>
@@ -2086,7 +2090,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
-        <v>42767</v>
+        <v>42826</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>6</v>
@@ -2097,7 +2101,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
-        <v>42795</v>
+        <v>42856</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>6</v>
@@ -2108,7 +2112,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
-        <v>42826</v>
+        <v>42887</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>6</v>
@@ -2119,10 +2123,10 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
-        <v>42856</v>
-      </c>
-      <c r="B150" s="3" t="s">
-        <v>6</v>
+        <v>42917</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="C150" t="s">
         <v>8</v>
@@ -2130,7 +2134,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
-        <v>42887</v>
+        <v>42979</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>6</v>
@@ -2141,10 +2145,10 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
-        <v>42917</v>
-      </c>
-      <c r="B152" s="5" t="s">
-        <v>5</v>
+        <v>43009</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="C152" t="s">
         <v>8</v>
@@ -2152,10 +2156,10 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
-        <v>42979</v>
-      </c>
-      <c r="B153" s="3" t="s">
-        <v>6</v>
+        <v>43040</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="C153" t="s">
         <v>8</v>
@@ -2163,7 +2167,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
-        <v>43009</v>
+        <v>43070</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>6</v>
@@ -2174,10 +2178,10 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
-        <v>43040</v>
-      </c>
-      <c r="B155" s="5" t="s">
-        <v>4</v>
+        <v>43101</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="C155" t="s">
         <v>8</v>
@@ -2185,7 +2189,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
-        <v>43070</v>
+        <v>43132</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>6</v>
@@ -2196,10 +2200,10 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
-        <v>43101</v>
-      </c>
-      <c r="B157" s="3" t="s">
-        <v>6</v>
+        <v>43160</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="C157" t="s">
         <v>8</v>
@@ -2207,7 +2211,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
-        <v>43132</v>
+        <v>43191</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>6</v>
@@ -2218,10 +2222,10 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
-        <v>43160</v>
-      </c>
-      <c r="B159" s="5" t="s">
-        <v>5</v>
+        <v>43221</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="C159" t="s">
         <v>8</v>
@@ -2229,7 +2233,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
-        <v>43191</v>
+        <v>43252</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>6</v>
@@ -2240,7 +2244,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
-        <v>43221</v>
+        <v>43282</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>6</v>
@@ -2251,10 +2255,10 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
-        <v>43252</v>
-      </c>
-      <c r="B162" s="3" t="s">
-        <v>6</v>
+        <v>43313</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="C162" t="s">
         <v>8</v>
@@ -2262,7 +2266,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
-        <v>43282</v>
+        <v>43344</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>6</v>
@@ -2273,10 +2277,10 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
-        <v>43313</v>
-      </c>
-      <c r="B164" s="5" t="s">
-        <v>4</v>
+        <v>43374</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="C164" t="s">
         <v>8</v>
@@ -2284,10 +2288,10 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
-        <v>43344</v>
-      </c>
-      <c r="B165" s="3" t="s">
-        <v>6</v>
+        <v>43405</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="C165" t="s">
         <v>8</v>
@@ -2295,7 +2299,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
-        <v>43374</v>
+        <v>43435</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>6</v>
@@ -2306,10 +2310,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
-        <v>43405</v>
+        <v>43466</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C167" t="s">
         <v>8</v>
@@ -2317,10 +2321,10 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
-        <v>43435</v>
-      </c>
-      <c r="B168" s="3" t="s">
-        <v>6</v>
+        <v>43497</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="C168" t="s">
         <v>8</v>
@@ -2328,10 +2332,10 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
-        <v>43466</v>
+        <v>43525</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C169" t="s">
         <v>8</v>
@@ -2339,10 +2343,10 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
-        <v>43497</v>
-      </c>
-      <c r="B170" s="5" t="s">
-        <v>5</v>
+        <v>43556</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="C170" t="s">
         <v>8</v>
@@ -2350,10 +2354,10 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
-        <v>43525</v>
-      </c>
-      <c r="B171" s="5" t="s">
-        <v>4</v>
+        <v>43586</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="C171" t="s">
         <v>8</v>
@@ -2361,7 +2365,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
-        <v>43556</v>
+        <v>43617</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>6</v>
@@ -2372,7 +2376,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
-        <v>43586</v>
+        <v>43647</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>6</v>
@@ -2383,7 +2387,7 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
-        <v>43617</v>
+        <v>43678</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>6</v>
@@ -2394,7 +2398,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
-        <v>43647</v>
+        <v>43709</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>6</v>
@@ -2405,7 +2409,7 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="4">
-        <v>43678</v>
+        <v>43739</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>6</v>
@@ -2416,10 +2420,10 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
-        <v>43709</v>
-      </c>
-      <c r="B177" s="3" t="s">
-        <v>6</v>
+        <v>43770</v>
+      </c>
+      <c r="B177" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="C177" t="s">
         <v>8</v>
@@ -2427,40 +2431,40 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="4">
-        <v>43739</v>
-      </c>
-      <c r="B178" s="3" t="s">
-        <v>6</v>
+        <v>43800</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="C178" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" s="4">
-        <v>43770</v>
-      </c>
-      <c r="B179" s="6" t="s">
-        <v>4</v>
+      <c r="A179" s="2">
+        <v>42005</v>
+      </c>
+      <c r="B179" t="s">
+        <v>6</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
-        <v>43800</v>
-      </c>
-      <c r="B180" s="5" t="s">
-        <v>4</v>
+        <v>42036</v>
+      </c>
+      <c r="B180" t="s">
+        <v>6</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" s="2">
-        <v>42005</v>
+      <c r="A181" s="4">
+        <v>42064</v>
       </c>
       <c r="B181" t="s">
         <v>6</v>
@@ -2471,10 +2475,10 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="4">
-        <v>42036</v>
+        <v>42095</v>
       </c>
       <c r="B182" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C182" t="s">
         <v>9</v>
@@ -2482,10 +2486,10 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
-        <v>42064</v>
+        <v>42125</v>
       </c>
       <c r="B183" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C183" t="s">
         <v>9</v>
@@ -2493,10 +2497,10 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
-        <v>42095</v>
+        <v>42156</v>
       </c>
       <c r="B184" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C184" t="s">
         <v>9</v>
@@ -2504,7 +2508,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
-        <v>42125</v>
+        <v>42186</v>
       </c>
       <c r="B185" t="s">
         <v>5</v>
@@ -2515,7 +2519,7 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
-        <v>42156</v>
+        <v>42217</v>
       </c>
       <c r="B186" t="s">
         <v>5</v>
@@ -2526,10 +2530,10 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
-        <v>42186</v>
+        <v>42248</v>
       </c>
       <c r="B187" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C187" t="s">
         <v>9</v>
@@ -2537,7 +2541,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
-        <v>42217</v>
+        <v>42278</v>
       </c>
       <c r="B188" t="s">
         <v>5</v>
@@ -2548,10 +2552,10 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
-        <v>42248</v>
+        <v>42309</v>
       </c>
       <c r="B189" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C189" t="s">
         <v>9</v>
@@ -2559,10 +2563,10 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
-        <v>42278</v>
+        <v>42339</v>
       </c>
       <c r="B190" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C190" t="s">
         <v>9</v>
@@ -2570,10 +2574,10 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
-        <v>42309</v>
+        <v>42370</v>
       </c>
       <c r="B191" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C191" t="s">
         <v>9</v>
@@ -2581,7 +2585,7 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
-        <v>42339</v>
+        <v>42401</v>
       </c>
       <c r="B192" t="s">
         <v>6</v>
@@ -2592,10 +2596,10 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
-        <v>42370</v>
+        <v>42430</v>
       </c>
       <c r="B193" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C193" t="s">
         <v>9</v>
@@ -2603,10 +2607,10 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
-        <v>42401</v>
+        <v>42461</v>
       </c>
       <c r="B194" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C194" t="s">
         <v>9</v>
@@ -2614,10 +2618,10 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="4">
-        <v>42430</v>
+        <v>42491</v>
       </c>
       <c r="B195" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C195" t="s">
         <v>9</v>
@@ -2625,7 +2629,7 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
-        <v>42461</v>
+        <v>42522</v>
       </c>
       <c r="B196" t="s">
         <v>5</v>
@@ -2636,10 +2640,10 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
-        <v>42491</v>
+        <v>42552</v>
       </c>
       <c r="B197" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C197" t="s">
         <v>9</v>
@@ -2647,7 +2651,7 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
-        <v>42522</v>
+        <v>42583</v>
       </c>
       <c r="B198" t="s">
         <v>5</v>
@@ -2658,7 +2662,7 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
-        <v>42552</v>
+        <v>42614</v>
       </c>
       <c r="B199" t="s">
         <v>5</v>
@@ -2669,7 +2673,7 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="4">
-        <v>42583</v>
+        <v>42644</v>
       </c>
       <c r="B200" t="s">
         <v>5</v>
@@ -2680,7 +2684,7 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
-        <v>42614</v>
+        <v>42675</v>
       </c>
       <c r="B201" t="s">
         <v>5</v>
@@ -2691,7 +2695,7 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
-        <v>42644</v>
+        <v>42705</v>
       </c>
       <c r="B202" t="s">
         <v>5</v>
@@ -2702,10 +2706,10 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
-        <v>42675</v>
+        <v>42736</v>
       </c>
       <c r="B203" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C203" t="s">
         <v>9</v>
@@ -2713,10 +2717,10 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
-        <v>42705</v>
+        <v>42767</v>
       </c>
       <c r="B204" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C204" t="s">
         <v>9</v>
@@ -2724,7 +2728,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="4">
-        <v>42736</v>
+        <v>42795</v>
       </c>
       <c r="B205" t="s">
         <v>6</v>
@@ -2735,7 +2739,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="4">
-        <v>42767</v>
+        <v>42826</v>
       </c>
       <c r="B206" t="s">
         <v>6</v>
@@ -2746,10 +2750,10 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="4">
-        <v>42795</v>
+        <v>42856</v>
       </c>
       <c r="B207" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C207" t="s">
         <v>9</v>
@@ -2757,10 +2761,10 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="4">
-        <v>42826</v>
+        <v>42887</v>
       </c>
       <c r="B208" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C208" t="s">
         <v>9</v>
@@ -2768,7 +2772,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
-        <v>42856</v>
+        <v>42917</v>
       </c>
       <c r="B209" t="s">
         <v>5</v>
@@ -2779,7 +2783,7 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="4">
-        <v>42887</v>
+        <v>42979</v>
       </c>
       <c r="B210" t="s">
         <v>5</v>
@@ -2790,7 +2794,7 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
-        <v>42917</v>
+        <v>43009</v>
       </c>
       <c r="B211" t="s">
         <v>5</v>
@@ -2801,10 +2805,10 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="4">
-        <v>42979</v>
+        <v>43040</v>
       </c>
       <c r="B212" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C212" t="s">
         <v>9</v>
@@ -2812,10 +2816,10 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
-        <v>43009</v>
+        <v>43070</v>
       </c>
       <c r="B213" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C213" t="s">
         <v>9</v>
@@ -2823,7 +2827,7 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="4">
-        <v>43040</v>
+        <v>43101</v>
       </c>
       <c r="B214" t="s">
         <v>6</v>
@@ -2834,7 +2838,7 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="4">
-        <v>43070</v>
+        <v>43132</v>
       </c>
       <c r="B215" t="s">
         <v>6</v>
@@ -2845,7 +2849,7 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="4">
-        <v>43101</v>
+        <v>43160</v>
       </c>
       <c r="B216" t="s">
         <v>6</v>
@@ -2856,10 +2860,10 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="4">
-        <v>43132</v>
+        <v>43191</v>
       </c>
       <c r="B217" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C217" t="s">
         <v>9</v>
@@ -2867,10 +2871,10 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="4">
-        <v>43160</v>
+        <v>43221</v>
       </c>
       <c r="B218" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C218" t="s">
         <v>9</v>
@@ -2878,10 +2882,10 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="4">
-        <v>43191</v>
+        <v>43252</v>
       </c>
       <c r="B219" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C219" t="s">
         <v>9</v>
@@ -2889,7 +2893,7 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="4">
-        <v>43221</v>
+        <v>43282</v>
       </c>
       <c r="B220" t="s">
         <v>5</v>
@@ -2900,7 +2904,7 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="4">
-        <v>43252</v>
+        <v>43313</v>
       </c>
       <c r="B221" t="s">
         <v>5</v>
@@ -2911,7 +2915,7 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
-        <v>43282</v>
+        <v>43344</v>
       </c>
       <c r="B222" t="s">
         <v>5</v>
@@ -2922,7 +2926,7 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
-        <v>43313</v>
+        <v>43374</v>
       </c>
       <c r="B223" t="s">
         <v>5</v>
@@ -2933,10 +2937,10 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="4">
-        <v>43344</v>
+        <v>43405</v>
       </c>
       <c r="B224" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C224" t="s">
         <v>9</v>
@@ -2944,7 +2948,7 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="4">
-        <v>43374</v>
+        <v>43435</v>
       </c>
       <c r="B225" t="s">
         <v>5</v>
@@ -2955,10 +2959,10 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="4">
-        <v>43405</v>
+        <v>43466</v>
       </c>
       <c r="B226" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C226" t="s">
         <v>9</v>
@@ -2966,10 +2970,10 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="4">
-        <v>43435</v>
+        <v>43497</v>
       </c>
       <c r="B227" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C227" t="s">
         <v>9</v>
@@ -2977,10 +2981,10 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="4">
-        <v>43466</v>
+        <v>43525</v>
       </c>
       <c r="B228" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C228" t="s">
         <v>9</v>
@@ -2988,7 +2992,7 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="4">
-        <v>43497</v>
+        <v>43556</v>
       </c>
       <c r="B229" t="s">
         <v>6</v>
@@ -2999,10 +3003,10 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="4">
-        <v>43525</v>
+        <v>43586</v>
       </c>
       <c r="B230" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C230" t="s">
         <v>9</v>
@@ -3010,10 +3014,10 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="4">
-        <v>43556</v>
+        <v>43617</v>
       </c>
       <c r="B231" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C231" t="s">
         <v>9</v>
@@ -3021,7 +3025,7 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="4">
-        <v>43586</v>
+        <v>43647</v>
       </c>
       <c r="B232" t="s">
         <v>5</v>
@@ -3032,7 +3036,7 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="4">
-        <v>43617</v>
+        <v>43678</v>
       </c>
       <c r="B233" t="s">
         <v>5</v>
@@ -3043,7 +3047,7 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="4">
-        <v>43647</v>
+        <v>43709</v>
       </c>
       <c r="B234" t="s">
         <v>5</v>
@@ -3054,7 +3058,7 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="4">
-        <v>43678</v>
+        <v>43739</v>
       </c>
       <c r="B235" t="s">
         <v>5</v>
@@ -3065,10 +3069,10 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="4">
-        <v>43709</v>
+        <v>43770</v>
       </c>
       <c r="B236" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C236" t="s">
         <v>9</v>
@@ -3076,36 +3080,666 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="4">
+        <v>43800</v>
+      </c>
+      <c r="B237" t="s">
+        <v>6</v>
+      </c>
+      <c r="C237" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
+        <v>42005</v>
+      </c>
+      <c r="B238" t="s">
+        <v>6</v>
+      </c>
+      <c r="C238" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
+        <v>42036</v>
+      </c>
+      <c r="B239" t="s">
+        <v>5</v>
+      </c>
+      <c r="C239" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
+        <v>42064</v>
+      </c>
+      <c r="B240" t="s">
+        <v>4</v>
+      </c>
+      <c r="C240" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
+        <v>42095</v>
+      </c>
+      <c r="B241" t="s">
+        <v>6</v>
+      </c>
+      <c r="C241" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
+        <v>42125</v>
+      </c>
+      <c r="B242" t="s">
+        <v>6</v>
+      </c>
+      <c r="C242" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
+        <v>42156</v>
+      </c>
+      <c r="B243" t="s">
+        <v>6</v>
+      </c>
+      <c r="C243" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
+        <v>42186</v>
+      </c>
+      <c r="B244" t="s">
+        <v>4</v>
+      </c>
+      <c r="C244" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
+        <v>42217</v>
+      </c>
+      <c r="B245" t="s">
+        <v>6</v>
+      </c>
+      <c r="C245" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
+        <v>42248</v>
+      </c>
+      <c r="B246" t="s">
+        <v>4</v>
+      </c>
+      <c r="C246" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
+        <v>42278</v>
+      </c>
+      <c r="B247" t="s">
+        <v>4</v>
+      </c>
+      <c r="C247" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
+        <v>42309</v>
+      </c>
+      <c r="B248" t="s">
+        <v>4</v>
+      </c>
+      <c r="C248" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
+        <v>42339</v>
+      </c>
+      <c r="B249" t="s">
+        <v>4</v>
+      </c>
+      <c r="C249" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
+        <v>42370</v>
+      </c>
+      <c r="B250" t="s">
+        <v>5</v>
+      </c>
+      <c r="C250" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
+        <v>42401</v>
+      </c>
+      <c r="B251" t="s">
+        <v>5</v>
+      </c>
+      <c r="C251" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
+        <v>42430</v>
+      </c>
+      <c r="B252" t="s">
+        <v>5</v>
+      </c>
+      <c r="C252" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
+        <v>42461</v>
+      </c>
+      <c r="B253" t="s">
+        <v>4</v>
+      </c>
+      <c r="C253" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
+        <v>42491</v>
+      </c>
+      <c r="B254" t="s">
+        <v>6</v>
+      </c>
+      <c r="C254" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
+        <v>42522</v>
+      </c>
+      <c r="B255" t="s">
+        <v>5</v>
+      </c>
+      <c r="C255" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="1">
+        <v>42552</v>
+      </c>
+      <c r="B256" t="s">
+        <v>6</v>
+      </c>
+      <c r="C256" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
+        <v>42583</v>
+      </c>
+      <c r="B257" t="s">
+        <v>6</v>
+      </c>
+      <c r="C257" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="1">
+        <v>42614</v>
+      </c>
+      <c r="B258" t="s">
+        <v>6</v>
+      </c>
+      <c r="C258" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="1">
+        <v>42644</v>
+      </c>
+      <c r="B259" t="s">
+        <v>6</v>
+      </c>
+      <c r="C259" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="1">
+        <v>42675</v>
+      </c>
+      <c r="B260" t="s">
+        <v>6</v>
+      </c>
+      <c r="C260" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="1">
+        <v>42705</v>
+      </c>
+      <c r="B261" t="s">
+        <v>5</v>
+      </c>
+      <c r="C261" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="1">
+        <v>42736</v>
+      </c>
+      <c r="B262" t="s">
+        <v>5</v>
+      </c>
+      <c r="C262" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="1">
+        <v>42767</v>
+      </c>
+      <c r="B263" t="s">
+        <v>6</v>
+      </c>
+      <c r="C263" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="1">
+        <v>42795</v>
+      </c>
+      <c r="B264" t="s">
+        <v>6</v>
+      </c>
+      <c r="C264" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="1">
+        <v>42826</v>
+      </c>
+      <c r="B265" t="s">
+        <v>6</v>
+      </c>
+      <c r="C265" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="1">
+        <v>42856</v>
+      </c>
+      <c r="B266" t="s">
+        <v>6</v>
+      </c>
+      <c r="C266" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="1">
+        <v>42887</v>
+      </c>
+      <c r="B267" t="s">
+        <v>6</v>
+      </c>
+      <c r="C267" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" s="1">
+        <v>42917</v>
+      </c>
+      <c r="B268" t="s">
+        <v>5</v>
+      </c>
+      <c r="C268" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="1">
+        <v>42979</v>
+      </c>
+      <c r="B269" t="s">
+        <v>4</v>
+      </c>
+      <c r="C269" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" s="1">
+        <v>43009</v>
+      </c>
+      <c r="B270" t="s">
+        <v>6</v>
+      </c>
+      <c r="C270" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="1">
+        <v>43040</v>
+      </c>
+      <c r="B271" t="s">
+        <v>4</v>
+      </c>
+      <c r="C271" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="1">
+        <v>43070</v>
+      </c>
+      <c r="B272" t="s">
+        <v>5</v>
+      </c>
+      <c r="C272" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="1">
+        <v>43101</v>
+      </c>
+      <c r="B273" t="s">
+        <v>5</v>
+      </c>
+      <c r="C273" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="1">
+        <v>43132</v>
+      </c>
+      <c r="B274" t="s">
+        <v>5</v>
+      </c>
+      <c r="C274" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="1">
+        <v>43160</v>
+      </c>
+      <c r="B275" t="s">
+        <v>5</v>
+      </c>
+      <c r="C275" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="1">
+        <v>43191</v>
+      </c>
+      <c r="B276" t="s">
+        <v>5</v>
+      </c>
+      <c r="C276" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="1">
+        <v>43221</v>
+      </c>
+      <c r="B277" t="s">
+        <v>5</v>
+      </c>
+      <c r="C277" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" s="1">
+        <v>43252</v>
+      </c>
+      <c r="B278" t="s">
+        <v>6</v>
+      </c>
+      <c r="C278" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="1">
+        <v>43282</v>
+      </c>
+      <c r="B279" t="s">
+        <v>6</v>
+      </c>
+      <c r="C279" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="1">
+        <v>43313</v>
+      </c>
+      <c r="B280" t="s">
+        <v>4</v>
+      </c>
+      <c r="C280" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="1">
+        <v>43344</v>
+      </c>
+      <c r="B281" t="s">
+        <v>6</v>
+      </c>
+      <c r="C281" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="1">
+        <v>43374</v>
+      </c>
+      <c r="B282" t="s">
+        <v>6</v>
+      </c>
+      <c r="C282" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="1">
+        <v>43405</v>
+      </c>
+      <c r="B283" t="s">
+        <v>4</v>
+      </c>
+      <c r="C283" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" s="1">
+        <v>43435</v>
+      </c>
+      <c r="B284" t="s">
+        <v>6</v>
+      </c>
+      <c r="C284" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="1">
+        <v>43466</v>
+      </c>
+      <c r="B285" t="s">
+        <v>4</v>
+      </c>
+      <c r="C285" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" s="1">
+        <v>43497</v>
+      </c>
+      <c r="B286" t="s">
+        <v>6</v>
+      </c>
+      <c r="C286" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="1">
+        <v>43525</v>
+      </c>
+      <c r="B287" t="s">
+        <v>4</v>
+      </c>
+      <c r="C287" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="1">
+        <v>43556</v>
+      </c>
+      <c r="B288" t="s">
+        <v>6</v>
+      </c>
+      <c r="C288" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="1">
+        <v>43586</v>
+      </c>
+      <c r="B289" t="s">
+        <v>6</v>
+      </c>
+      <c r="C289" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" s="1">
+        <v>43617</v>
+      </c>
+      <c r="B290" t="s">
+        <v>4</v>
+      </c>
+      <c r="C290" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" s="1">
+        <v>43647</v>
+      </c>
+      <c r="B291" t="s">
+        <v>4</v>
+      </c>
+      <c r="C291" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" s="1">
+        <v>43678</v>
+      </c>
+      <c r="B292" t="s">
+        <v>6</v>
+      </c>
+      <c r="C292" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" s="1">
+        <v>43709</v>
+      </c>
+      <c r="B293" t="s">
+        <v>4</v>
+      </c>
+      <c r="C293" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" s="1">
         <v>43739</v>
       </c>
-      <c r="B237" t="s">
-        <v>5</v>
-      </c>
-      <c r="C237" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A238" s="4">
+      <c r="B294" t="s">
+        <v>4</v>
+      </c>
+      <c r="C294" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" s="1">
         <v>43770</v>
       </c>
-      <c r="B238" t="s">
-        <v>6</v>
-      </c>
-      <c r="C238" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A239" s="4">
+      <c r="B295" t="s">
+        <v>4</v>
+      </c>
+      <c r="C295" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" s="1">
         <v>43800</v>
       </c>
-      <c r="B239" t="s">
-        <v>6</v>
-      </c>
-      <c r="C239" t="s">
-        <v>9</v>
-      </c>
+      <c r="B296" t="s">
+        <v>4</v>
+      </c>
+      <c r="C296" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/data/modelos.xlsx
+++ b/data/modelos.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="12">
   <si>
     <t>SIF</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>Amp_T</t>
+  </si>
+  <si>
+    <t>Dxco2</t>
   </si>
 </sst>
 </file>
@@ -466,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C297"/>
+  <dimension ref="A1:C355"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61:XFD61"/>
+    <sheetView tabSelected="1" topLeftCell="A271" workbookViewId="0">
+      <selection activeCell="A297" sqref="A297:C355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,9 +480,9 @@
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -3739,7 +3742,653 @@
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A297" s="1"/>
+      <c r="A297" s="1">
+        <v>42005</v>
+      </c>
+      <c r="B297" t="s">
+        <v>6</v>
+      </c>
+      <c r="C297" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" s="1">
+        <v>42036</v>
+      </c>
+      <c r="B298" t="s">
+        <v>6</v>
+      </c>
+      <c r="C298" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" s="1">
+        <v>42064</v>
+      </c>
+      <c r="B299" t="s">
+        <v>6</v>
+      </c>
+      <c r="C299" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" s="1">
+        <v>42095</v>
+      </c>
+      <c r="B300" t="s">
+        <v>6</v>
+      </c>
+      <c r="C300" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" s="1">
+        <v>42125</v>
+      </c>
+      <c r="B301" t="s">
+        <v>5</v>
+      </c>
+      <c r="C301" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" s="1">
+        <v>42156</v>
+      </c>
+      <c r="B302" t="s">
+        <v>6</v>
+      </c>
+      <c r="C302" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" s="1">
+        <v>42186</v>
+      </c>
+      <c r="B303" t="s">
+        <v>4</v>
+      </c>
+      <c r="C303" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" s="1">
+        <v>42217</v>
+      </c>
+      <c r="B304" t="s">
+        <v>6</v>
+      </c>
+      <c r="C304" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" s="1">
+        <v>42248</v>
+      </c>
+      <c r="B305" t="s">
+        <v>5</v>
+      </c>
+      <c r="C305" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" s="1">
+        <v>42278</v>
+      </c>
+      <c r="B306" t="s">
+        <v>6</v>
+      </c>
+      <c r="C306" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" s="1">
+        <v>42309</v>
+      </c>
+      <c r="B307" t="s">
+        <v>5</v>
+      </c>
+      <c r="C307" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" s="1">
+        <v>42339</v>
+      </c>
+      <c r="B308" t="s">
+        <v>6</v>
+      </c>
+      <c r="C308" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" s="1">
+        <v>42370</v>
+      </c>
+      <c r="B309" t="s">
+        <v>6</v>
+      </c>
+      <c r="C309" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" s="1">
+        <v>42401</v>
+      </c>
+      <c r="B310" t="s">
+        <v>6</v>
+      </c>
+      <c r="C310" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" s="1">
+        <v>42430</v>
+      </c>
+      <c r="B311" t="s">
+        <v>6</v>
+      </c>
+      <c r="C311" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" s="1">
+        <v>42461</v>
+      </c>
+      <c r="B312" t="s">
+        <v>6</v>
+      </c>
+      <c r="C312" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" s="1">
+        <v>42491</v>
+      </c>
+      <c r="B313" t="s">
+        <v>6</v>
+      </c>
+      <c r="C313" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" s="1">
+        <v>42522</v>
+      </c>
+      <c r="B314" t="s">
+        <v>6</v>
+      </c>
+      <c r="C314" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" s="1">
+        <v>42552</v>
+      </c>
+      <c r="B315" t="s">
+        <v>6</v>
+      </c>
+      <c r="C315" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" s="1">
+        <v>42583</v>
+      </c>
+      <c r="B316" t="s">
+        <v>5</v>
+      </c>
+      <c r="C316" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" s="1">
+        <v>42614</v>
+      </c>
+      <c r="B317" t="s">
+        <v>4</v>
+      </c>
+      <c r="C317" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" s="1">
+        <v>42644</v>
+      </c>
+      <c r="B318" t="s">
+        <v>4</v>
+      </c>
+      <c r="C318" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" s="1">
+        <v>42675</v>
+      </c>
+      <c r="B319" t="s">
+        <v>6</v>
+      </c>
+      <c r="C319" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" s="1">
+        <v>42705</v>
+      </c>
+      <c r="B320" t="s">
+        <v>6</v>
+      </c>
+      <c r="C320" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" s="1">
+        <v>42736</v>
+      </c>
+      <c r="B321" t="s">
+        <v>4</v>
+      </c>
+      <c r="C321" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" s="1">
+        <v>42767</v>
+      </c>
+      <c r="B322" t="s">
+        <v>5</v>
+      </c>
+      <c r="C322" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" s="1">
+        <v>42795</v>
+      </c>
+      <c r="B323" t="s">
+        <v>6</v>
+      </c>
+      <c r="C323" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" s="1">
+        <v>42826</v>
+      </c>
+      <c r="B324" t="s">
+        <v>6</v>
+      </c>
+      <c r="C324" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" s="1">
+        <v>42856</v>
+      </c>
+      <c r="B325" t="s">
+        <v>6</v>
+      </c>
+      <c r="C325" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" s="1">
+        <v>42887</v>
+      </c>
+      <c r="B326" t="s">
+        <v>6</v>
+      </c>
+      <c r="C326" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" s="1">
+        <v>42917</v>
+      </c>
+      <c r="B327" t="s">
+        <v>6</v>
+      </c>
+      <c r="C327" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" s="1">
+        <v>42979</v>
+      </c>
+      <c r="B328" t="s">
+        <v>6</v>
+      </c>
+      <c r="C328" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" s="1">
+        <v>43009</v>
+      </c>
+      <c r="B329" t="s">
+        <v>6</v>
+      </c>
+      <c r="C329" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" s="1">
+        <v>43040</v>
+      </c>
+      <c r="B330" t="s">
+        <v>6</v>
+      </c>
+      <c r="C330" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" s="1">
+        <v>43070</v>
+      </c>
+      <c r="B331" t="s">
+        <v>6</v>
+      </c>
+      <c r="C331" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" s="1">
+        <v>43101</v>
+      </c>
+      <c r="B332" t="s">
+        <v>6</v>
+      </c>
+      <c r="C332" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" s="1">
+        <v>43132</v>
+      </c>
+      <c r="B333" t="s">
+        <v>6</v>
+      </c>
+      <c r="C333" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" s="1">
+        <v>43160</v>
+      </c>
+      <c r="B334" t="s">
+        <v>6</v>
+      </c>
+      <c r="C334" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" s="1">
+        <v>43191</v>
+      </c>
+      <c r="B335" t="s">
+        <v>6</v>
+      </c>
+      <c r="C335" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" s="1">
+        <v>43221</v>
+      </c>
+      <c r="B336" t="s">
+        <v>5</v>
+      </c>
+      <c r="C336" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" s="1">
+        <v>43252</v>
+      </c>
+      <c r="B337" t="s">
+        <v>6</v>
+      </c>
+      <c r="C337" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" s="1">
+        <v>43282</v>
+      </c>
+      <c r="B338" t="s">
+        <v>6</v>
+      </c>
+      <c r="C338" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" s="1">
+        <v>43313</v>
+      </c>
+      <c r="B339" t="s">
+        <v>5</v>
+      </c>
+      <c r="C339" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" s="1">
+        <v>43344</v>
+      </c>
+      <c r="B340" t="s">
+        <v>6</v>
+      </c>
+      <c r="C340" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" s="1">
+        <v>43374</v>
+      </c>
+      <c r="B341" t="s">
+        <v>5</v>
+      </c>
+      <c r="C341" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" s="1">
+        <v>43405</v>
+      </c>
+      <c r="B342" t="s">
+        <v>5</v>
+      </c>
+      <c r="C342" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" s="1">
+        <v>43435</v>
+      </c>
+      <c r="B343" t="s">
+        <v>6</v>
+      </c>
+      <c r="C343" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" s="1">
+        <v>43466</v>
+      </c>
+      <c r="B344" t="s">
+        <v>6</v>
+      </c>
+      <c r="C344" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" s="1">
+        <v>43497</v>
+      </c>
+      <c r="B345" t="s">
+        <v>6</v>
+      </c>
+      <c r="C345" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" s="1">
+        <v>43525</v>
+      </c>
+      <c r="B346" t="s">
+        <v>6</v>
+      </c>
+      <c r="C346" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" s="1">
+        <v>43556</v>
+      </c>
+      <c r="B347" t="s">
+        <v>6</v>
+      </c>
+      <c r="C347" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" s="1">
+        <v>43586</v>
+      </c>
+      <c r="B348" t="s">
+        <v>5</v>
+      </c>
+      <c r="C348" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" s="1">
+        <v>43617</v>
+      </c>
+      <c r="B349" t="s">
+        <v>6</v>
+      </c>
+      <c r="C349" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" s="1">
+        <v>43647</v>
+      </c>
+      <c r="B350" t="s">
+        <v>6</v>
+      </c>
+      <c r="C350" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" s="1">
+        <v>43678</v>
+      </c>
+      <c r="B351" t="s">
+        <v>5</v>
+      </c>
+      <c r="C351" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" s="1">
+        <v>43709</v>
+      </c>
+      <c r="B352" t="s">
+        <v>6</v>
+      </c>
+      <c r="C352" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" s="1">
+        <v>43739</v>
+      </c>
+      <c r="B353" t="s">
+        <v>6</v>
+      </c>
+      <c r="C353" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" s="1">
+        <v>43770</v>
+      </c>
+      <c r="B354" t="s">
+        <v>5</v>
+      </c>
+      <c r="C354" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" s="1">
+        <v>43800</v>
+      </c>
+      <c r="B355" t="s">
+        <v>6</v>
+      </c>
+      <c r="C355" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
